--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_5_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_5_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.29000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.468063503636571e-16</v>
+        <v>1.536640864533089e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>42.37817919973296</v>
+        <v>41.42198677273471</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[38.139096728562286, 46.61726167090364]</t>
+          <t>[36.87763597304462, 45.966337572424806]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.540921321580579</v>
+        <v>1.46544762419704</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.440289725069193, 1.641552918091965]</t>
+          <t>[1.3522370781217328, 1.5786581702723472]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.02350704251907</v>
+        <v>52.61570622894893</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.14540797335202, 54.90160611168612]</t>
+          <t>[49.66277405708723, 55.56863840081063]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.33299299299327</v>
+        <v>18.56342342342369</v>
       </c>
       <c r="X2" t="n">
-        <v>17.94396396396423</v>
+        <v>18.12720720720747</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.7220220220223</v>
+        <v>18.99963963963991</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.86000000000045</v>
+        <v>24.97000000000046</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.468063503636571e-16</v>
+        <v>1.536640864533089e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>40.66562749436363</v>
+        <v>40.25256776716466</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[34.22761660073303, 47.10363838799422]</t>
+          <t>[34.21914904972262, 46.28598648460671]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.597553084950119</v>
+        <v>2.823974177100735</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.446605690183042, 2.7485004797171966]</t>
+          <t>[2.6730267823336575, 2.974921571867812]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.04807753526817</v>
+        <v>52.83386140553301</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.7072701646285, 56.388884905907844]</t>
+          <t>[49.42919607209407, 56.238526738971956]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.5825425425428</v>
+        <v>13.7472472472475</v>
       </c>
       <c r="X3" t="n">
-        <v>13.98530530530556</v>
+        <v>13.14736736736761</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.17977977978005</v>
+        <v>14.34712712712739</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_5_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_5_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.21000000000035</v>
+        <v>24.34000000000037</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.536640864533089e-16</v>
+        <v>1.490232247819002e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>41.42198677273471</v>
+        <v>46.92846250722232</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[36.87763597304462, 45.966337572424806]</t>
+          <t>[42.52807012207446, 51.32885489237018]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.46544762419704</v>
+        <v>1.729605565039426</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3522370781217328, 1.5786581702723472]</t>
+          <t>[1.628973968528041, 1.8302371615508113]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.61570622894893</v>
+        <v>56.35419776274084</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.66277405708723, 55.56863840081063]</t>
+          <t>[53.58799460245924, 59.12040092302244]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.56342342342369</v>
+        <v>17.63979979980006</v>
       </c>
       <c r="X2" t="n">
-        <v>18.12720720720747</v>
+        <v>17.24996996997023</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.99963963963991</v>
+        <v>18.0296296296299</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.97000000000046</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.536640864533089e-16</v>
+        <v>1.490232247819002e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>40.25256776716466</v>
+        <v>39.87851338360237</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[34.21914904972262, 46.28598648460671]</t>
+          <t>[35.00199839802027, 44.75502836918448]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.823974177100735</v>
+        <v>-3.107000542289004</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.6730267823336575, 2.974921571867812]</t>
+          <t>[-3.2453689874921583, -2.96863209708585]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>52.83386140553301</v>
+        <v>53.57083010802628</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.42919607209407, 56.238526738971956]</t>
+          <t>[50.27796285265891, 56.86369736339365]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>13.7472472472475</v>
+        <v>12.37225225225249</v>
       </c>
       <c r="X3" t="n">
-        <v>13.14736736736761</v>
+        <v>11.82126126126148</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.34712712712739</v>
+        <v>12.92324324324349</v>
       </c>
     </row>
   </sheetData>
